--- a/src/test/resources/test13_2.xlsx
+++ b/src/test/resources/test13_2.xlsx
@@ -76,12 +76,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -94,16 +100,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -120,10 +126,10 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -143,6 +149,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -342,12 +349,12 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -380,10 +387,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -631,12 +638,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -951,10 +958,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
